--- a/Data/Processed/Angiosperms/missing_powo_ipni/Malpighiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Malpighiaceae.xlsx
@@ -1147,7 +1147,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -29978,7 +29978,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -34741,7 +34741,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -35379,7 +35379,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -36127,7 +36127,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -36820,7 +36820,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -38118,7 +38118,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -40626,7 +40626,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -40824,7 +40824,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="G983" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H983" t="inlineStr">
@@ -55277,7 +55277,7 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stigmatoph. [Niedenzu, 1899] pt. 2, 10. 1900 </t>
+          <t>Stigmatoph. [Niedenzu, 1899] pt. 2, 10. 1900</t>
         </is>
       </c>
       <c r="J983" t="b">
@@ -55345,7 +55345,7 @@
       </c>
       <c r="G984" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H984" t="inlineStr">
@@ -55423,7 +55423,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H985" t="inlineStr">
@@ -55501,7 +55501,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H986" t="inlineStr">
@@ -55511,7 +55511,7 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Univ. Michigan Herb. 17: 43 (-44). 1990 </t>
+          <t>Contr. Univ. Michigan Herb. 17: 43 (-44). 1990</t>
         </is>
       </c>
       <c r="J986" t="b">
@@ -55579,7 +55579,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
@@ -55589,7 +55589,7 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 32: 105 (-106), fig. 1981 </t>
+          <t>Mem. New York Bot. Gard. 32: 105 (-106), fig. 1981</t>
         </is>
       </c>
       <c r="J987" t="b">
@@ -55657,7 +55657,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
@@ -55667,7 +55667,7 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam. Nachtr. [Engler &amp; Prantl] 1: 207. 1897 </t>
+          <t>Nat. Pflanzenfam. Nachtr. [Engler &amp; Prantl] 1: 207. 1897</t>
         </is>
       </c>
       <c r="J988" t="b">
@@ -55735,7 +55735,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
@@ -55745,7 +55745,7 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 32: 105 (-106), fig. 1981 </t>
+          <t>Mem. New York Bot. Gard. 32: 105 (-106), fig. 1981</t>
         </is>
       </c>
       <c r="J989" t="b">
@@ -55813,7 +55813,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H990" t="inlineStr">
@@ -55823,7 +55823,7 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 282. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 282. 1908</t>
         </is>
       </c>
       <c r="J990" t="b">
@@ -55891,7 +55891,7 @@
       </c>
       <c r="G991" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H991" t="inlineStr">
@@ -55901,7 +55901,7 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 35(6): 21, pl. 4. 1901 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 35(6): 21, pl. 4. 1901</t>
         </is>
       </c>
       <c r="J991" t="b">
@@ -55969,7 +55969,7 @@
       </c>
       <c r="G992" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H992" t="inlineStr">
@@ -56047,7 +56047,7 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H993" t="inlineStr">
@@ -56125,7 +56125,7 @@
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H994" t="inlineStr">
@@ -56135,7 +56135,7 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 2. 1891 [5 May 1891] </t>
+          <t>Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 2. 1891 [5 May 1891]</t>
         </is>
       </c>
       <c r="J994" t="b">
@@ -56203,7 +56203,7 @@
       </c>
       <c r="G995" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H995" t="inlineStr">
@@ -56213,7 +56213,7 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 2. 1891 [5 May 1891] </t>
+          <t>Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 2. 1891 [5 May 1891]</t>
         </is>
       </c>
       <c r="J995" t="b">
@@ -56281,7 +56281,7 @@
       </c>
       <c r="G996" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H996" t="inlineStr">
@@ -56291,7 +56291,7 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 3, pl. 1, A. 1891 [5 May 1891] </t>
+          <t>Bot. Jahrb. Syst. 14(1-2, Beibl. 30): 3, pl. 1, A. 1891 [5 May 1891]</t>
         </is>
       </c>
       <c r="J996" t="b">
@@ -56359,7 +56359,7 @@
       </c>
       <c r="G997" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H997" t="inlineStr">
@@ -56369,7 +56369,7 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 14: 55. 1962 </t>
+          <t>Brittonia 14: 55. 1962</t>
         </is>
       </c>
       <c r="J997" t="b">
@@ -56437,7 +56437,7 @@
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H998" t="inlineStr">
@@ -56447,7 +56447,7 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t xml:space="preserve">Webbia 13: 443. 1958 </t>
+          <t>Webbia 13: 443. 1958</t>
         </is>
       </c>
       <c r="J998" t="b">
